--- a/data/trans_camb/PLURIPATOLOGIA-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 5,28</t>
+          <t>-0,86; 5,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,55</t>
+          <t>-2,42; 2,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 12,44</t>
+          <t>2,39; 12,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,01</t>
+          <t>-3,9; 3,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,03</t>
+          <t>1,66; 7,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,35</t>
+          <t>-2,42; 2,22</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 355,91</t>
+          <t>-28,92; 420,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,56; 170,72</t>
+          <t>-63,2; 199,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 288,47</t>
+          <t>27,61; 312,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,66; 78,63</t>
+          <t>-45,45; 88,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,78; 276,24</t>
+          <t>22,83; 254,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 72,93</t>
+          <t>-41,55; 73,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,76</t>
+          <t>-0,81; 4,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,19</t>
+          <t>-3,73; 0,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,71</t>
+          <t>0,19; 5,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,14</t>
+          <t>-5,63; 1,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -1,86</t>
+          <t>-9,33; -2,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,94</t>
+          <t>-1,51; 6,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,42</t>
+          <t>-2,38; 2,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -1,57</t>
+          <t>-5,67; -1,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,98</t>
+          <t>0,24; 5,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 222,77</t>
+          <t>-24,3; 217,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,08; 16,4</t>
+          <t>-84,25; 20,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 267,41</t>
+          <t>-3,42; 265,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 26,93</t>
+          <t>-43,34; 18,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,09; -20,14</t>
+          <t>-68,35; -24,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 59,78</t>
+          <t>-10,73; 68,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 41,21</t>
+          <t>-28,34; 37,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,83; -25,38</t>
+          <t>-66,58; -25,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 83,7</t>
+          <t>0,91; 84,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,3</t>
+          <t>-0,22; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,98</t>
+          <t>-1,36; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,21</t>
+          <t>8,2; 14,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,71</t>
+          <t>2,71; 9,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,27</t>
+          <t>0,76; 7,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 18,64</t>
+          <t>11,48; 18,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,01</t>
+          <t>1,82; 6,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,42</t>
+          <t>0,42; 4,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 15,88</t>
+          <t>11,01; 15,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 1034,73</t>
+          <t>-43,38; 1040,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,66; 412,93</t>
+          <t>-71,89; 515,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>320,56; 4432,01</t>
+          <t>299,73; 3792,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,65; 783,82</t>
+          <t>46,38; 699,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 495,62</t>
+          <t>12,93; 525,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>274,44; 1579,22</t>
+          <t>243,58; 1324,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,81; 576,32</t>
+          <t>64,93; 550,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 370,83</t>
+          <t>9,63; 363,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>361,21; 1509,33</t>
+          <t>403,08; 1577,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,84</t>
+          <t>-1,0; 3,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,5</t>
+          <t>-0,09; 5,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,59</t>
+          <t>4,9; 12,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 11,28</t>
+          <t>4,67; 11,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,66</t>
+          <t>5,24; 13,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,04; 15,1</t>
+          <t>7,51; 14,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,54</t>
+          <t>2,74; 6,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,68</t>
+          <t>3,68; 8,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,88</t>
+          <t>7,77; 12,86</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 294,05</t>
+          <t>-30,87; 297,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 409,18</t>
+          <t>-16,09; 428,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>111,09; 894,04</t>
+          <t>93,68; 877,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>70,09; 383,33</t>
+          <t>72,53; 420,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>89,39; 534,8</t>
+          <t>82,3; 459,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>122,23; 493,39</t>
+          <t>122,97; 549,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,92; 275,88</t>
+          <t>60,37; 271,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,28; 348,02</t>
+          <t>73,88; 343,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>165,09; 520,09</t>
+          <t>169,05; 546,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,16; 11,01</t>
+          <t>2,72; 11,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,07</t>
+          <t>-1,05; 5,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,47</t>
+          <t>3,66; 11,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,81; 18,11</t>
+          <t>6,4; 18,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 11,02</t>
+          <t>0,57; 11,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,32; 16,26</t>
+          <t>4,66; 16,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,74; 12,81</t>
+          <t>5,63; 13,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,91</t>
+          <t>0,64; 7,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,17</t>
+          <t>6,42; 12,61</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,33; 1168,25</t>
+          <t>51,1; 1276,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 689,84</t>
+          <t>-39,76; 669,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>68,98; 1134,57</t>
+          <t>56,78; 1163,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>80,29; 648,44</t>
+          <t>62,23; 689,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 396,47</t>
+          <t>0,37; 431,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>42,53; 586,4</t>
+          <t>49,84; 588,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>108,19; 549,13</t>
+          <t>90,2; 529,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,64; 277,77</t>
+          <t>9,93; 311,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>111,01; 572,57</t>
+          <t>115,89; 543,47</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,95</t>
+          <t>2,7; 8,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,48</t>
+          <t>2,0; 6,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,94</t>
+          <t>13,95; 20,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,17</t>
+          <t>-1,54; 6,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,28</t>
+          <t>-1,62; 6,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,64; 28,01</t>
+          <t>18,96; 28,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,49</t>
+          <t>1,42; 5,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,32</t>
+          <t>0,94; 5,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,41; 23,53</t>
+          <t>17,44; 23,23</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 254,05</t>
+          <t>-29,75; 234,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 220,39</t>
+          <t>-28,18; 219,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>261,62; 1113,36</t>
+          <t>281,21; 1135,31</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,27; 489,42</t>
+          <t>33,38; 404,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>14,54; 407,78</t>
+          <t>20,97; 385,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>475,34; 1866,74</t>
+          <t>487,8; 1888,34</t>
         </is>
       </c>
     </row>
@@ -1981,37 +1981,37 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,92</t>
+          <t>-1,99; 1,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,23</t>
+          <t>-1,0; 3,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,44</t>
+          <t>4,15; 9,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,93</t>
+          <t>1,19; 7,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,87</t>
+          <t>1,93; 7,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,06; 51,79</t>
+          <t>16,42; 54,85</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,88</t>
+          <t>0,39; 4,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,61; 37,55</t>
+          <t>11,54; 39,65</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 89,2</t>
+          <t>-49,07; 88,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 150,57</t>
+          <t>-24,6; 146,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>92,09; 421,91</t>
+          <t>86,03; 420,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,19; 153,21</t>
+          <t>15,88; 151,35</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,95; 171,49</t>
+          <t>26,41; 173,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>246,36; 1110,72</t>
+          <t>256,6; 1207,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,65; 99,75</t>
+          <t>5,26; 111,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,04; 128,19</t>
+          <t>25,64; 134,37</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>237,63; 923,27</t>
+          <t>241,24; 1076,13</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -3,16</t>
+          <t>-7,53; -3,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -1,32</t>
+          <t>-5,98; -1,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,54</t>
+          <t>-3,52; 1,52</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,17</t>
+          <t>-3,67; 2,03</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,18</t>
+          <t>-1,0; 5,17</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,65</t>
+          <t>1,44; 7,62</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -1,22</t>
+          <t>-4,75; -1,21</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,15</t>
+          <t>-2,81; 1,09</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,78</t>
+          <t>-0,27; 3,89</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-85,96; -52,19</t>
+          <t>-86,55; -52,88</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-70,48; -20,95</t>
+          <t>-70,02; -23,87</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 27,24</t>
+          <t>-40,93; 27,52</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 28,87</t>
+          <t>-35,61; 28,17</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 68,92</t>
+          <t>-11,16; 68,54</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>11,47; 105,98</t>
+          <t>12,73; 100,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -17,81</t>
+          <t>-52,08; -17,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 16,86</t>
+          <t>-31,05; 15,24</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 52,51</t>
+          <t>-3,09; 55,39</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,33</t>
+          <t>-0,57; 1,28</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,98</t>
+          <t>-0,75; 1,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,43</t>
+          <t>4,12; 6,41</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,54</t>
+          <t>1,8; 4,54</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,55</t>
+          <t>1,77; 4,49</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>9,5; 20,89</t>
+          <t>9,6; 21,17</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,59</t>
+          <t>0,97; 2,68</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,48</t>
+          <t>0,84; 2,48</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,98</t>
+          <t>7,44; 14,56</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 45,07</t>
+          <t>-14,69; 43,22</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 31,12</t>
+          <t>-19,48; 33,18</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>108,43; 212,29</t>
+          <t>104,17; 209,07</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>24,72; 74,38</t>
+          <t>24,15; 73,63</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>22,99; 75,2</t>
+          <t>22,81; 72,4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>134,85; 323,73</t>
+          <t>134,71; 328,95</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>17,67; 54,64</t>
+          <t>17,42; 56,31</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>14,82; 52,58</t>
+          <t>15,59; 54,23</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>140,19; 269,93</t>
+          <t>138,91; 275,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,47</t>
+          <t>-0,77; 5,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,33</t>
+          <t>-2,26; 2,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 12,65</t>
+          <t>1,96; 12,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,29</t>
+          <t>-3,7; 3,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,84</t>
+          <t>1,66; 7,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,22</t>
+          <t>-2,09; 2,37</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 420,97</t>
+          <t>-30,06; 426,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 199,04</t>
+          <t>-61,61; 211,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,61; 312,03</t>
+          <t>20,99; 316,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 88,57</t>
+          <t>-43,97; 95,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,83; 254,83</t>
+          <t>27,1; 258,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 73,65</t>
+          <t>-37,88; 81,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,7</t>
+          <t>-0,58; 4,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,17</t>
+          <t>-3,62; 0,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,51</t>
+          <t>0,09; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,74</t>
+          <t>-5,81; 1,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -2,45</t>
+          <t>-8,88; -1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,27</t>
+          <t>-1,6; 6,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,33</t>
+          <t>-2,35; 2,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -1,55</t>
+          <t>-5,76; -1,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,32</t>
+          <t>0,29; 5,16</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 217,82</t>
+          <t>-17,44; 234,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,25; 20,6</t>
+          <t>-79,41; 17,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 265,11</t>
+          <t>-6,34; 280,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 18,4</t>
+          <t>-42,61; 20,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,35; -24,0</t>
+          <t>-66,51; -18,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 68,79</t>
+          <t>-12,2; 63,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 37,91</t>
+          <t>-28,36; 38,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,58; -25,8</t>
+          <t>-65,86; -22,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 84,33</t>
+          <t>2,5; 81,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,38</t>
+          <t>-0,19; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,02</t>
+          <t>-1,44; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,78</t>
+          <t>8,25; 14,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 9,97</t>
+          <t>2,69; 9,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,35</t>
+          <t>0,54; 7,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,69</t>
+          <t>11,1; 18,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,09</t>
+          <t>1,95; 6,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,17</t>
+          <t>0,33; 4,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 15,59</t>
+          <t>11,07; 15,77</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 1040,36</t>
+          <t>-49,6; 833,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 515,02</t>
+          <t>-75,61; 510,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>299,73; 3792,13</t>
+          <t>312,22; 4065,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>46,38; 699,26</t>
+          <t>63,48; 631,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,93; 525,33</t>
+          <t>-3,0; 514,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>243,58; 1324,87</t>
+          <t>253,75; 1449,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,93; 550,42</t>
+          <t>46,42; 470,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 363,66</t>
+          <t>3,41; 332,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>403,08; 1577,52</t>
+          <t>379,5; 1386,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,88</t>
+          <t>-0,91; 3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 5,87</t>
+          <t>0,13; 5,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,76</t>
+          <t>5,0; 12,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,44</t>
+          <t>4,36; 10,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 13,34</t>
+          <t>5,35; 13,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 14,84</t>
+          <t>7,89; 15,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,64</t>
+          <t>2,54; 6,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,76</t>
+          <t>3,57; 8,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,86</t>
+          <t>7,54; 12,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 297,21</t>
+          <t>-25,48; 274,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 428,01</t>
+          <t>-6,17; 387,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,68; 877,19</t>
+          <t>112,22; 865,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>72,53; 420,6</t>
+          <t>70,74; 405,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>82,3; 459,35</t>
+          <t>91,99; 483,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>122,97; 549,35</t>
+          <t>124,45; 542,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>60,37; 271,24</t>
+          <t>50,5; 279,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>73,88; 343,04</t>
+          <t>76,99; 361,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>169,05; 546,04</t>
+          <t>158,17; 530,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 11,62</t>
+          <t>2,57; 11,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,8</t>
+          <t>-1,16; 5,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 11,34</t>
+          <t>3,97; 11,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 18,49</t>
+          <t>5,96; 18,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 11,65</t>
+          <t>0,36; 11,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,66; 16,1</t>
+          <t>5,13; 16,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,63; 13,28</t>
+          <t>5,79; 13,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,16</t>
+          <t>0,66; 7,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,42; 12,61</t>
+          <t>6,33; 13,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>51,1; 1276,43</t>
+          <t>25,78; 1022,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 669,3</t>
+          <t>-42,19; 575,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>56,78; 1163,79</t>
+          <t>77,76; 1092,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>62,23; 689,62</t>
+          <t>71,01; 679,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,37; 431,36</t>
+          <t>-1,39; 446,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>49,84; 588,52</t>
+          <t>61,84; 598,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>90,2; 529,81</t>
+          <t>94,57; 575,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,93; 311,91</t>
+          <t>9,1; 278,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>115,89; 543,47</t>
+          <t>105,37; 597,89</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,01</t>
+          <t>2,7; 8,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,26</t>
+          <t>2,09; 6,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,2</t>
+          <t>-1,68; 6,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,47</t>
+          <t>-1,55; 6,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,96; 28,2</t>
+          <t>18,65; 28,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,78</t>
+          <t>1,36; 6,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,41</t>
+          <t>0,82; 5,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,44; 23,23</t>
+          <t>17,69; 23,36</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 234,55</t>
+          <t>-32,03; 235,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 219,26</t>
+          <t>-32,89; 260,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>281,21; 1135,31</t>
+          <t>268,79; 1203,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>33,38; 404,56</t>
+          <t>30,82; 453,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>20,97; 385,98</t>
+          <t>19,62; 401,66</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>487,8; 1888,34</t>
+          <t>476,74; 1809,1</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,9</t>
+          <t>-1,8; 2,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,13</t>
+          <t>-1,01; 3,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,55</t>
+          <t>3,89; 9,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,09</t>
+          <t>1,24; 7,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,94</t>
+          <t>1,81; 8,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,42; 54,85</t>
+          <t>16,33; 53,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,18</t>
+          <t>0,33; 3,79</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,91</t>
+          <t>1,18; 4,94</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,54; 39,65</t>
+          <t>11,63; 39,13</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 88,27</t>
+          <t>-46,3; 98,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 146,09</t>
+          <t>-26,61; 143,74</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>86,03; 420,58</t>
+          <t>90,82; 404,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,88; 151,35</t>
+          <t>13,48; 160,38</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>26,41; 173,89</t>
+          <t>25,41; 179,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>256,6; 1207,54</t>
+          <t>267,13; 1072,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,26; 111,09</t>
+          <t>6,73; 103,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>25,64; 134,37</t>
+          <t>20,1; 134,37</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>241,24; 1076,13</t>
+          <t>240,74; 946,9</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,53; -3,29</t>
+          <t>-7,2; -3,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,98; -1,48</t>
+          <t>-5,84; -1,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,52</t>
+          <t>-3,16; 1,41</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,03</t>
+          <t>-3,68; 2,14</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 5,17</t>
+          <t>-1,26; 5,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,62</t>
+          <t>1,4; 7,81</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -1,21</t>
+          <t>-4,58; -1,16</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,09</t>
+          <t>-2,55; 1,32</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,89</t>
+          <t>-0,26; 3,82</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-86,55; -52,88</t>
+          <t>-86,47; -54,94</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-70,02; -23,87</t>
+          <t>-69,61; -24,34</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 27,52</t>
+          <t>-39,76; 23,49</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 28,17</t>
+          <t>-35,89; 29,5</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 68,54</t>
+          <t>-13,52; 71,89</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>12,73; 100,01</t>
+          <t>11,98; 103,94</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-52,08; -17,27</t>
+          <t>-51,21; -16,53</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 15,24</t>
+          <t>-28,78; 18,58</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 55,39</t>
+          <t>-3,13; 53,72</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,28</t>
+          <t>-0,52; 1,3</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,0</t>
+          <t>-0,77; 0,95</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,41</t>
+          <t>4,18; 6,44</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,54</t>
+          <t>1,92; 4,55</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,49</t>
+          <t>1,79; 4,51</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>9,6; 21,17</t>
+          <t>9,49; 21,63</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,68</t>
+          <t>1,0; 2,57</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,48</t>
+          <t>0,81; 2,45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,56</t>
+          <t>7,45; 14,91</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 43,22</t>
+          <t>-14,13; 42,27</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 33,18</t>
+          <t>-20,02; 31,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>104,17; 209,07</t>
+          <t>106,9; 218,25</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>24,15; 73,63</t>
+          <t>25,56; 73,4</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>22,81; 72,4</t>
+          <t>24,48; 73,9</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>134,71; 328,95</t>
+          <t>132,16; 308,56</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>17,42; 56,31</t>
+          <t>17,96; 53,84</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>15,59; 54,23</t>
+          <t>14,75; 51,27</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>138,91; 275,15</t>
+          <t>138,07; 296,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,61</t>
+          <t>-0,99; 5,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,61</t>
+          <t>-2,42; 2,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 12,44</t>
+          <t>1,81; 12,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,55</t>
+          <t>-4,11; 3,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,83</t>
+          <t>1,95; 8,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,37</t>
+          <t>-2,03; 2,35</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 426,24</t>
+          <t>-32,33; 355,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,61; 211,96</t>
+          <t>-65,56; 170,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,99; 316,8</t>
+          <t>13,42; 288,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 95,01</t>
+          <t>-46,66; 78,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,1; 258,9</t>
+          <t>35,78; 276,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 81,29</t>
+          <t>-36,88; 72,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,74</t>
+          <t>-0,7; 4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,18</t>
+          <t>-3,79; 0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,72</t>
+          <t>0,06; 5,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 1,88</t>
+          <t>-5,8; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -1,97</t>
+          <t>-9,47; -1,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,08</t>
+          <t>-1,46; 5,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,3</t>
+          <t>-2,31; 2,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -1,48</t>
+          <t>-5,59; -1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,16</t>
+          <t>0,34; 4,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 234,05</t>
+          <t>-21,54; 222,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,41; 17,11</t>
+          <t>-81,08; 16,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 280,7</t>
+          <t>-3,78; 267,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 20,67</t>
+          <t>-43,67; 26,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,51; -18,92</t>
+          <t>-70,09; -20,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 63,19</t>
+          <t>-10,76; 59,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 38,92</t>
+          <t>-28,02; 41,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,86; -22,66</t>
+          <t>-66,83; -25,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 81,67</t>
+          <t>4,04; 83,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,33</t>
+          <t>-0,22; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,99</t>
+          <t>-1,32; 1,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 14,83</t>
+          <t>8,35; 15,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,59</t>
+          <t>2,35; 9,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 7,45</t>
+          <t>0,63; 7,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,1; 18,28</t>
+          <t>11,51; 18,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,15</t>
+          <t>1,66; 6,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,07</t>
+          <t>0,27; 4,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,77</t>
+          <t>10,95; 15,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 833,59</t>
+          <t>-37,25; 1034,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,61; 510,19</t>
+          <t>-74,66; 412,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>312,22; 4065,87</t>
+          <t>320,56; 4432,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,48; 631,93</t>
+          <t>49,65; 783,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 514,26</t>
+          <t>4,58; 495,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>253,75; 1449,78</t>
+          <t>274,44; 1579,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,42; 470,74</t>
+          <t>56,81; 576,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 332,5</t>
+          <t>1,41; 370,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>379,5; 1386,17</t>
+          <t>361,21; 1509,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,69</t>
+          <t>-0,94; 3,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,67</t>
+          <t>0,05; 5,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,65</t>
+          <t>5,12; 12,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,86</t>
+          <t>4,59; 11,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 13,59</t>
+          <t>5,22; 13,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 15,19</t>
+          <t>8,04; 15,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,58</t>
+          <t>2,69; 6,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,72</t>
+          <t>3,66; 8,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,54; 12,58</t>
+          <t>7,79; 12,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 274,64</t>
+          <t>-27,31; 294,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 387,21</t>
+          <t>-7,87; 409,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>112,22; 865,51</t>
+          <t>111,09; 894,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>70,74; 405,11</t>
+          <t>70,09; 383,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>91,99; 483,22</t>
+          <t>89,39; 534,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>124,45; 542,52</t>
+          <t>122,23; 493,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,5; 279,92</t>
+          <t>57,92; 275,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>76,99; 361,84</t>
+          <t>80,28; 348,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>158,17; 530,73</t>
+          <t>165,09; 520,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,57; 11,22</t>
+          <t>2,16; 11,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,51</t>
+          <t>-0,91; 6,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,97; 11,63</t>
+          <t>3,69; 11,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,96; 18,15</t>
+          <t>6,81; 18,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 11,25</t>
+          <t>0,59; 11,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,13; 16,33</t>
+          <t>4,32; 16,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,28</t>
+          <t>5,74; 12,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,08</t>
+          <t>0,66; 6,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,33; 13,04</t>
+          <t>6,5; 13,17</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>25,78; 1022,94</t>
+          <t>21,33; 1168,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 575,39</t>
+          <t>-40,45; 689,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77,76; 1092,32</t>
+          <t>68,98; 1134,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>71,01; 679,2</t>
+          <t>80,29; 648,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 446,55</t>
+          <t>-3,02; 396,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>61,84; 598,54</t>
+          <t>42,53; 586,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,57; 575,72</t>
+          <t>108,19; 549,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,1; 278,42</t>
+          <t>8,64; 277,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>105,37; 597,89</t>
+          <t>111,01; 572,57</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,09</t>
+          <t>2,64; 7,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,54</t>
+          <t>1,85; 6,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,95; 20,98</t>
+          <t>13,75; 20,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 6,5</t>
+          <t>-1,45; 6,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 6,45</t>
+          <t>-1,89; 6,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,65; 28,28</t>
+          <t>18,64; 28,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,11</t>
+          <t>1,12; 6,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,43</t>
+          <t>0,71; 5,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,69; 23,36</t>
+          <t>17,41; 23,53</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 235,18</t>
+          <t>-30,12; 254,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 260,28</t>
+          <t>-34,49; 220,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>268,79; 1203,26</t>
+          <t>261,62; 1113,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>30,82; 453,66</t>
+          <t>25,27; 489,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,62; 401,66</t>
+          <t>14,54; 407,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>476,74; 1809,1</t>
+          <t>475,34; 1866,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,14</t>
+          <t>-2,06; 1,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,25</t>
+          <t>-1,1; 3,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,39</t>
+          <t>4,02; 9,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,23</t>
+          <t>1,02; 6,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,28</t>
+          <t>1,87; 7,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,33; 53,94</t>
+          <t>16,06; 51,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,79</t>
+          <t>0,28; 3,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,94</t>
+          <t>1,31; 4,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,63; 39,13</t>
+          <t>11,61; 37,55</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 98,92</t>
+          <t>-49,45; 89,2</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 143,74</t>
+          <t>-27,89; 150,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>90,82; 404,22</t>
+          <t>92,09; 421,91</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13,48; 160,38</t>
+          <t>12,19; 153,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>25,41; 179,03</t>
+          <t>22,95; 171,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>267,13; 1072,75</t>
+          <t>246,36; 1110,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>6,73; 103,86</t>
+          <t>4,65; 99,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>20,1; 134,37</t>
+          <t>24,04; 128,19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>240,74; 946,9</t>
+          <t>237,63; 923,27</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,2; -3,43</t>
+          <t>-7,29; -3,16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -1,63</t>
+          <t>-5,69; -1,32</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,41</t>
+          <t>-3,36; 1,54</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,14</t>
+          <t>-3,67; 2,17</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,16</t>
+          <t>-1,38; 5,18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,81</t>
+          <t>1,26; 7,65</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -1,16</t>
+          <t>-4,73; -1,22</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,32</t>
+          <t>-2,6; 1,15</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,82</t>
+          <t>-0,34; 3,78</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-86,47; -54,94</t>
+          <t>-85,96; -52,19</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-69,61; -24,34</t>
+          <t>-70,48; -20,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 23,49</t>
+          <t>-40,24; 27,24</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 29,5</t>
+          <t>-35,4; 28,87</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 71,89</t>
+          <t>-13,49; 68,92</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>11,98; 103,94</t>
+          <t>11,47; 105,98</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-51,21; -16,53</t>
+          <t>-52,02; -17,81</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 18,58</t>
+          <t>-29,64; 16,86</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 53,72</t>
+          <t>-4,71; 52,51</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,3</t>
+          <t>-0,53; 1,33</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,95</t>
+          <t>-0,85; 0,98</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,44</t>
+          <t>4,19; 6,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,55</t>
+          <t>1,84; 4,54</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,51</t>
+          <t>1,67; 4,55</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>9,49; 21,63</t>
+          <t>9,5; 20,89</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,57</t>
+          <t>0,97; 2,59</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,45</t>
+          <t>0,81; 2,48</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,91</t>
+          <t>7,49; 13,98</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 42,27</t>
+          <t>-13,54; 45,07</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 31,73</t>
+          <t>-22,21; 31,12</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>106,9; 218,25</t>
+          <t>108,43; 212,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>25,56; 73,4</t>
+          <t>24,72; 74,38</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>24,48; 73,9</t>
+          <t>22,99; 75,2</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>132,16; 308,56</t>
+          <t>134,85; 323,73</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>17,96; 53,84</t>
+          <t>17,67; 54,64</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>14,75; 51,27</t>
+          <t>14,82; 52,58</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>138,07; 296,72</t>
+          <t>140,19; 269,93</t>
         </is>
       </c>
     </row>
